--- a/ExcelFiles/export.xlsx
+++ b/ExcelFiles/export.xlsx
@@ -6,14 +6,13 @@
   <sheets>
     <sheet sheetId="1" name="test" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="1" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="2" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
   <si>
     <t>$oid</t>
   </si>
@@ -319,78 +318,6 @@
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>ObjektOprema</t>
-  </si>
-  <si>
-    <t>Proizvodac</t>
-  </si>
-  <si>
-    <t>LokacijaObjekta</t>
-  </si>
-  <si>
-    <t>ZaposlenikZaduzenOprema</t>
-  </si>
-  <si>
-    <t>Obrazlozenje</t>
-  </si>
-  <si>
-    <t>PoduzeteMjere</t>
-  </si>
-  <si>
-    <t>Predložak održavanje objekta</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>PP/OO</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>ODRŽAVANJE POSLOVNE KOMUNIKACIJE</t>
-  </si>
-  <si>
-    <t>2021-05-05</t>
-  </si>
-  <si>
-    <t>Karlo Vrdoljak</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Caffe bas SOSS</t>
-  </si>
-  <si>
-    <t>Gradnja d.o.o</t>
-  </si>
-  <si>
-    <t>Kopilica 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dr. sc. Ivo Ivić </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  U skladu s novim pravilnikom čl. 24. stavka 1. u Narodnim novinama izdanje 05/05/2021, Obavezna sanacija prostora prilikom izmjene smjena u svrhu suzbijanja COVID19 pandemije. Svi radnici moraju držati fizičku distancu od 1m ukoliko je moguće. Smjene traju 7 sati, uz sanaciju od točno pola sata prije i nakon smjene.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podijeljeni otkazi, dobava antiseptika i dodatnih sredstava namjene suzbijanja pandemije. </t>
-  </si>
-  <si>
-    <t>6092663a4a361d575c44a834</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>Filip Bikic</t>
   </si>
 </sst>
 </file>
@@ -1701,231 +1628,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="44" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>